--- a/GameOct18/quiz_en.xlsx
+++ b/GameOct18/quiz_en.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="quiz_en" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -946,7 +946,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GameOct18/quiz_en.xlsx
+++ b/GameOct18/quiz_en.xlsx
@@ -39,21 +39,12 @@
     <t>I do not know</t>
   </si>
   <si>
-    <t>How likely is it that you get the same partner in all three games?</t>
-  </si>
-  <si>
     <t>Your partner is the same in all three games</t>
   </si>
   <si>
     <t>How many tokens will you get in a game if an offer is rejected?</t>
   </si>
   <si>
-    <t>What is the maximum number of tokens you can get during the experiment to exchange for the actual payment?</t>
-  </si>
-  <si>
-    <t>What is the minimum number of tokens you can get during the experiment to exchange for the actual payment?</t>
-  </si>
-  <si>
     <t>In game 1, will player 2 see the offer before or after she makes her move in the game?</t>
   </si>
   <si>
@@ -136,6 +127,15 @@
   </si>
   <si>
     <t>The fact that player 1 makes two choices means exactly that</t>
+  </si>
+  <si>
+    <t>What is the maximum number of tokens you can get during the experiment to exchange for the actual payment (not counting the survey)?</t>
+  </si>
+  <si>
+    <t>What is the minimum number of tokens you can get during the experiment to exchange for the actual payment (not counting the survey)?</t>
+  </si>
+  <si>
+    <t>How likely would you get the same partner in all three games?</t>
   </si>
 </sst>
 </file>
@@ -946,7 +946,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,31 +968,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
         <v>No</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1024,13 +1024,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1040,7 +1040,7 @@
         <v>Your partner is chosen randomly at the beginning of each game</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1048,13 +1048,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1062,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1076,13 +1076,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1090,13 +1090,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
         <v>After</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1114,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -1130,7 +1130,7 @@
         <v>No</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1138,13 +1138,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1164,10 +1164,10 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -1177,7 +1177,7 @@
         <v>1 or 12 depending on the first decision</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1185,7 +1185,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1201,7 +1201,7 @@
         <v>Yes</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
